--- a/Defi_du_combattant/DATA_couleur.xlsx
+++ b/Defi_du_combattant/DATA_couleur.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usherbrooke-my.sharepoint.com/personal/turj3113_usherbrooke_ca/Documents/UNI/Projet_S1/SparX/SparX/Defi_du_combattant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edoua\OneDrive\Documents\Session 1\Projet\SparX\Defi_du_combattant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A229B3DE-A385-471B-BB9B-F2B4D403D571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D5A3CF-C3DA-4313-B46D-BB801B532C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D4562C9-C4A8-4D62-8B71-3BF98C7ACAF8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D4562C9-C4A8-4D62-8B71-3BF98C7ACAF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="107">
   <si>
     <t>Vert</t>
   </si>
@@ -81,6 +81,282 @@
   </si>
   <si>
     <t>Clear &lt; 500 et R &lt; 100 et B &lt; 150 et G &gt; 140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 406 G: 200 B: 227 C: 884  </t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 394 G: 197 B: 223 C: 865  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 394 G: 194 B: 220 C: 857  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 408 G: 200 B: 226 C: 884  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 408 G: 200 B: 225 C: 882  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 407 G: 199 B: 225 C: 882  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 407 G: 200 B: 225 C: 882  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 420 G: 193 B: 221 C: 884  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 394 G: 193 B: 219 C: 858  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 389 G: 190 B: 216 C: 846  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 366 G: 178 B: 202 C: 794  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 354 G: 180 B: 205 C: 788  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 409 G: 190 B: 217 C: 865  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 381 G: 190 B: 215 C: 837  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 334 G: 176 B: 199 C: 757  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 356 G: 177 B: 202 C: 783  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 371 G: 180 B: 206 C: 804  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 381 G: 186 B: 212 C: 827  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 402 G: 184 B: 211 C: 845  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 386 G: 188 B: 214 C: 838  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 937 G: 788 B: 420 C: 2350  </t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 979 G: 835 B: 433 C: 2467  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 827 G: 705 B: 377 C: 2093  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 955 G: 816 B: 428 C: 2413  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 964 G: 822 B: 428 C: 2430  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 819 G: 698 B: 376 C: 2076  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 963 G: 822 B: 428 C: 2428  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 957 G: 817 B: 425 C: 2415  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 818 G: 698 B: 375 C: 2073  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 960 G: 819 B: 426 C: 2421  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 958 G: 818 B: 425 C: 2416  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 818 G: 697 B: 373 C: 2071  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 851 G: 725 B: 386 C: 2153  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 928 G: 792 B: 414 C: 2343  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 905 G: 771 B: 406 C: 2283  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 887 G: 756 B: 399 C: 2239  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 915 G: 781 B: 409 C: 2310  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 931 G: 801 B: 418 C: 2360  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 173 G: 296 B: 278 C: 825  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 147 G: 256 B: 239 C: 711  </t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 168 G: 291 B: 271 C: 806  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 171 G: 296 B: 275 C: 821  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 154 G: 264 B: 248 C: 736  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 167 G: 289 B: 270 C: 803  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 172 G: 304 B: 277 C: 832  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 157 G: 274 B: 253 C: 756  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 155 G: 265 B: 250 C: 741  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 164 G: 288 B: 265 C: 793  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 153 G: 263 B: 246 C: 732  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 146 G: 250 B: 237 C: 702  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 181 G: 322 B: 295 C: 885  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 175 G: 308 B: 285 C: 849  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 178 G: 310 B: 284 C: 854  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 154 G: 269 B: 249 C: 744  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 179 G: 307 B: 286 C: 852  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 165 G: 293 B: 268 C: 805  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 156 G: 272 B: 252 C: 753  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 174 G: 299 B: 279 C: 831  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 108 G: 187 B: 305 C: 657  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 118 G: 206 B: 345 C: 730  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 115 G: 198 B: 324 C: 696  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 112 G: 188 B: 302 C: 660  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 121 G: 204 B: 332 C: 718  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 112 G: 192 B: 313 C: 675  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 122 G: 209 B: 347 C: 741  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 120 G: 202 B: 329 C: 710  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 120 G: 197 B: 322 C: 720  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 102 G: 179 B: 292 C: 628  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 107 G: 186 B: 307 C: 656  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 115 G: 193 B: 314 C: 681  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 112 G: 189 B: 305 C: 663  </t>
+  </si>
+  <si>
+    <t>R&gt;140 R&lt;180 G&gt;250 G&lt;310 B&gt;240 B&lt;290 C&gt;700 C&lt;860</t>
+  </si>
+  <si>
+    <t>R&gt;330 R&lt;410 G&gt; 170 G &lt;205 et B &gt;200 B&lt;230 C&gt;750 C&lt;900</t>
+  </si>
+  <si>
+    <t>R&gt;800 R&lt;980 et G&lt;690 G&gt;840 B&gt; 370  B&lt;450 c&lt;2000 C&gt;2500</t>
+  </si>
+  <si>
+    <t>R&lt;140  G&gt;185 G&lt;210 B&gt;290 B&lt;350 C&lt;745 C&gt;620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 815 G: 871 B: 897 C: 2803  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 873 G: 930 B: 953 C: 2991  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 763 G: 811 B: 832 C: 2612  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 896 G: 959 B: 984 C: 3083  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 776 G: 825 B: 847 C: 2657  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 864 G: 913 B: 929 C: 2937  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 1025 G: 1093 B: 1116 C: 3515  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 802 G: 846 B: 863 C: 2726  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 874 G: 925 B: 942 C: 2977  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 1089 G: 1167 B: 1193 C: 3750  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 815 G: 861 B: 880 C: 2773  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 942 G: 1000 B: 1021 C: 3216  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R: 975 G: 1039 B: 1061 C: 3340  </t>
+  </si>
+  <si>
+    <t>R&gt;760 G&gt;800 G&lt;1200 B&gt;840 B&lt;1200 C &gt;2600</t>
   </si>
 </sst>
 </file>
@@ -96,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +406,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,64 +563,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -335,15 +597,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,838 +966,1496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F65C29-4D30-48FD-8179-03F19B353CCB}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="10" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="7" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="20" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="22"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="29"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>150</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>113</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>127</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>429</v>
       </c>
       <c r="E3" s="1">
         <v>93</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3">
         <v>148</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3">
         <v>146</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>436</v>
       </c>
       <c r="I3" s="1">
         <v>81</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>124</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>167</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>414</v>
       </c>
       <c r="M3" s="1">
         <v>333</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3">
         <v>287</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3">
         <v>193</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>895</v>
       </c>
       <c r="Q3" s="1">
         <v>357</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3">
         <v>360</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3">
         <v>356</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="2">
         <v>1172</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>154</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>114</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>129</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>436</v>
       </c>
       <c r="E4" s="1">
         <v>96</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4">
         <v>151</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4">
         <v>149</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>444</v>
       </c>
       <c r="I4" s="1">
         <v>82</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>128</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <v>175</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>429</v>
       </c>
       <c r="M4" s="1">
         <v>339</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4">
         <v>292</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4">
         <v>194</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>909</v>
       </c>
       <c r="Q4" s="1">
         <v>364</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4">
         <v>368</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4">
         <v>364</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="2">
         <v>1196</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>171</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>117</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>132</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>458</v>
       </c>
       <c r="E5" s="1">
         <v>96</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5">
         <v>152</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5">
         <v>149</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>447</v>
       </c>
       <c r="I5" s="1">
         <v>85</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>131</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>180</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>441</v>
       </c>
       <c r="M5" s="1">
         <v>325</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5">
         <v>284</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5">
         <v>191</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <v>881</v>
       </c>
       <c r="Q5" s="1">
         <v>362</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5">
         <v>365</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5">
         <v>362</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="2">
         <v>1188</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>151</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6">
         <v>113</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6">
         <v>129</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>432</v>
       </c>
       <c r="E6" s="1">
         <v>95</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6">
         <v>149</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6">
         <v>147</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>440</v>
       </c>
       <c r="I6" s="1">
         <v>84</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6">
         <v>129</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6">
         <v>178</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>437</v>
       </c>
       <c r="M6" s="1">
         <v>333</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6">
         <v>287</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6">
         <v>189</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <v>891</v>
       </c>
       <c r="Q6" s="1">
         <v>369</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6">
         <v>372</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6">
         <v>367</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="2">
         <v>1209</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>149</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7">
         <v>112</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7">
         <v>127</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>427</v>
       </c>
       <c r="E7" s="1">
         <v>93</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7">
         <v>146</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7">
         <v>145</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>432</v>
       </c>
       <c r="I7" s="1">
         <v>83</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7">
         <v>129</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7">
         <v>178</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>434</v>
       </c>
       <c r="M7" s="1">
         <v>331</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7">
         <v>287</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7">
         <v>190</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="2">
         <v>890</v>
       </c>
       <c r="Q7" s="1">
         <v>361</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R7">
         <v>365</v>
       </c>
-      <c r="S7" s="19">
+      <c r="S7">
         <v>361</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="2">
         <v>1186</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>161</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8">
         <v>114</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8">
         <v>130</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>444</v>
       </c>
       <c r="E8" s="1">
         <v>91</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8">
         <v>144</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8">
         <v>145</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>427</v>
       </c>
       <c r="I8" s="1">
         <v>87</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8">
         <v>135</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8">
         <v>190</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>459</v>
       </c>
       <c r="M8" s="1">
         <v>323</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8">
         <v>278</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8">
         <v>186</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="2">
         <v>866</v>
       </c>
       <c r="Q8" s="1">
         <v>362</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8">
         <v>368</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S8">
         <v>366</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="2">
         <v>1196</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>160</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9">
         <v>114</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9">
         <v>130</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>443</v>
       </c>
       <c r="E9" s="1">
         <v>89</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9">
         <v>142</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9">
         <v>143</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>420</v>
       </c>
       <c r="I9" s="1">
         <v>89</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9">
         <v>142</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9">
         <v>206</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>485</v>
       </c>
       <c r="M9" s="1">
         <v>329</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9">
         <v>283</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9">
         <v>189</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="2">
         <v>882</v>
       </c>
       <c r="Q9" s="1">
         <v>363</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R9">
         <v>368</v>
       </c>
-      <c r="S9" s="19">
+      <c r="S9">
         <v>365</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="2">
         <v>1197</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>152</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10">
         <v>114</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10">
         <v>128</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>433</v>
       </c>
       <c r="E10" s="1">
         <v>88</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10">
         <v>139</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10">
         <v>142</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>416</v>
       </c>
       <c r="I10" s="1">
         <v>84</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10">
         <v>129</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10">
         <v>178</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>437</v>
       </c>
       <c r="M10" s="1">
         <v>309</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10">
         <v>289</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10">
         <v>183</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="2">
         <v>838</v>
       </c>
       <c r="Q10" s="1">
         <v>355</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10">
         <v>361</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10">
         <v>360</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="2">
         <v>1176</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>166</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11">
         <v>114</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11">
         <v>129</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>447</v>
       </c>
       <c r="E11" s="1">
         <v>86</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11">
         <v>137</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11">
         <v>139</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>407</v>
       </c>
       <c r="I11" s="1">
         <v>83</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11">
         <v>128</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11">
         <v>175</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>432</v>
       </c>
       <c r="M11" s="1">
         <v>271</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11">
         <v>246</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11">
         <v>173</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <v>761</v>
       </c>
       <c r="Q11" s="1">
         <v>371</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R11">
         <v>374</v>
       </c>
-      <c r="S11" s="19">
+      <c r="S11">
         <v>369</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="2">
         <v>1216</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>163</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>114</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>129</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>444</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>90</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>144</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>146</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>428</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>83</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>128</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>174</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>430</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>304</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <v>268</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <v>184</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="5">
         <v>835</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>352</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="4">
         <v>359</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="4">
         <v>356</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="5">
         <v>1165</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="29" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="29" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="29" t="s">
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="29" t="s">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="31"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="8"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="23" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="23" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="23" t="s">
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="23" t="s">
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="25"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="25"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="28"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="11"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="14"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" t="s">
+        <v>78</v>
+      </c>
+      <c r="M26" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" t="s">
+        <v>79</v>
+      </c>
+      <c r="M28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" t="s">
+        <v>80</v>
+      </c>
+      <c r="M30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+      <c r="M31" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" t="s">
+        <v>81</v>
+      </c>
+      <c r="M32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" t="s">
+        <v>82</v>
+      </c>
+      <c r="M34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M35" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" t="s">
+        <v>83</v>
+      </c>
+      <c r="M36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+      <c r="M37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" t="s">
+        <v>84</v>
+      </c>
+      <c r="M38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+      <c r="M39" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40" t="s">
+        <v>85</v>
+      </c>
+      <c r="M40" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" t="s">
+        <v>57</v>
+      </c>
+      <c r="M41" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" t="s">
+        <v>86</v>
+      </c>
+      <c r="M42" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M43" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" t="s">
+        <v>87</v>
+      </c>
+      <c r="M44" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>57</v>
+      </c>
+      <c r="M45" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M46" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="M47" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s">
+        <v>70</v>
+      </c>
+      <c r="M48" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>71</v>
+      </c>
+      <c r="M50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>57</v>
+      </c>
+      <c r="M51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="M55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="M14:P16"/>
     <mergeCell ref="Q13:T13"/>
@@ -1505,11 +2466,6 @@
     <mergeCell ref="E14:H16"/>
     <mergeCell ref="I13:L13"/>
     <mergeCell ref="I14:L16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
